--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45229</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45229</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45727</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44574</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>44525</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>45002.33693287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45356</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>45960.46733796296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45380</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45982.47866898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45771</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45265</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44356.64039351852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44280.67996527778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>44659</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44683</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>44454</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>44413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>44466</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>44277.44908564815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44419</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44252.4019212963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44734.59395833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44559</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44851.28905092592</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>44497</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44342.3705787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>44536</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44741.58083333333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44337</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44466</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44446</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44576</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44791.5109837963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44525</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44285</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44588</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44303</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44769.85975694445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44769.86467592593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44523</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44380</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44829.53040509259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44448</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44834</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44657</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>44518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>44449</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44551</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44365</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44389.34393518518</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44657</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44440</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44426</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44361</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44810</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44880</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44853</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44573.4724074074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>44614</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>44855.50005787037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44347</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44309</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44347.59332175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44393.55623842592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44706</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>44591.73207175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44810.61072916666</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>44518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>44518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>44741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>44584.43501157407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>44825</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44707</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>44448</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>45631</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>45425</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>45081</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44452</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>45442</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>45324</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44525</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44991.76490740741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>45095.5043287037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44974</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45771</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45734.73771990741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45272</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45756.47322916667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45637</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>44894.54332175926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>45238</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44722.65894675926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44256</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45202.88909722222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45693</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45456</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45600.46086805555</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>45222.6190625</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>45749</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>44959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45447.67954861111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>45110</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>45662.66461805555</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44365</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45798.63496527778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45798.6374537037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>45799.58790509259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>45575</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>45799.55320601852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>45798.58275462963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>45553.63631944444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>45798.63954861111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>45803.60784722222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>44588.77704861111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>45701.45054398148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>45802.98574074074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>44497</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>45044.70921296296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>45804.68641203704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>45268</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>45805.4883449074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>45805.48194444444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>45244.59488425926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44812</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>45887</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>45805.47020833333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>45805.47421296296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>45805.48299768518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>45804.51362268518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>45112</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>45303</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>45569.53792824074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>45807.42402777778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>45888.62746527778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>45537.46413194444</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>45888</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>45810.33642361111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>45811.64729166667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45811.65296296297</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45811.64962962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45810</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44584.92929398148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>45699.5178125</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45477.7536574074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>45810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>45811.65487268518</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>45771</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>45812.18076388889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45812.18193287037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>44741.62621527778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>45253</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44917</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>45246.49946759259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44256</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>45818.70811342593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44258</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>45202.66186342593</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>45819.33046296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>44742</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>44742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>45202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>45902</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>45820.36546296296</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>45370.56413194445</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44265</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>45040.81483796296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>45902.55111111111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>45905.61800925926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>45904.44737268519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>45904.45096064815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45904.44528935185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44334.41479166667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>45456</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>45911</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>45364</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44584.92440972223</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>45911</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>45911.00423611111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>45910.99054398148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>45385.59355324074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>45827.37871527778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>45827.37355324074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>45378.45844907407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>45364.55585648148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>45041</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>45364.5349074074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>45827.37101851852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>45429</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>45678</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>45917</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>45243.89223379629</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>45833</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>45456</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>45678.32096064815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>45832.92839120371</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>45833</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>45833.41175925926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>45379.60784722222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>45666.631875</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>45803</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>45803</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>45167.8615162037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44588.71736111111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>45167.86685185185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45664.81667824074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>45243.87305555555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>45191</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>44734.59033564815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>45313</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>45647</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>45763</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44473.59327546296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45202.60193287037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45933</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>45933</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>45933.36717592592</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>45716.4727199074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>45936</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44917</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>45936</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>45936.54618055555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>45387</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>45936.67871527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>45933.75037037037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>45770</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>45841</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>45841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>45841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>45937</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>45470.70732638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>45252.48734953703</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45208</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45944.65953703703</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44656</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45203.8788425926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>45944</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>45947.59918981481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45076</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45838.45957175926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45950.47662037037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45947.7615162037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45950.49555555556</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45782.46689814814</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45079</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45681</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45951</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45947.78379629629</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44883</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>45366</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>45904</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>45917</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44648</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>45952</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>45952.70795138889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>45698</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>45681.64340277778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>45265.67802083334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>45379</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>45771</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44978.49046296296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>45996.63592592593</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>45954.35456018519</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17595,7 +17595,7 @@
         <v>44473</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>45958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44965.40863425926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45959.57221064815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45672.69739583333</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>45282</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>45361.54023148148</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>45959.5890162037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>45959.50270833333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>45876.46565972222</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>45960.49731481481</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45876.4650925926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>45877</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>45961.31371527778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45961.44334490741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>45098</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>45392.48643518519</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>45679.70420138889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>45450</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18785,7 +18785,7 @@
         <v>44526</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>45581.44835648148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44421</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44270.28930555555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44712</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45113</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45679</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>45639</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>45631</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44753.68769675926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>45477.73</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>45882</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>45974</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44972</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>45756.59615740741</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>45022.37618055556</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>45887</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>45268</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19935,7 +19935,7 @@
         <v>45978.53528935185</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>45359</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44466</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44256</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>44256</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>44234</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>45981.80733796296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>44342.36737268518</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44342.36854166666</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>45985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>45625</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45167.87266203704</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>45985</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44489.32222222222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>45772.53273148148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>45989.57525462963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>45210</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>45453</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>45581.44762731482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>46034.64753472222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>45604.49644675926</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>45666</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>46034.66052083333</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>46034.66271990741</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45322.60049768518</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>45763</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45268</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45995.33516203704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>45461</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>45995.36916666666</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>46036.35011574074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44595</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44595</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>45999.41554398148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>45756</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>45302.8869675926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>45699.50086805555</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44855.48866898148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45999.64396990741</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45628.72998842593</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>46038.71106481482</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>46038.71923611111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>46038.72739583333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45999.62773148148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45999.43715277778</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45581.44998842593</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45999.6125925926</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45999.58943287037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>45999.46429398148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>45636</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>45282</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>45999.56577546296</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44448</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>46037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>45478</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45478</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>46042</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>46001.62677083333</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>46042</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>45315.65621527778</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>45756.49243055555</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>46000.65341435185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>46000.40466435185</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45622.72836805556</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>46000.31924768518</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44746</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45600.46815972222</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44256</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>46002.3866087963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>46003.45391203704</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>46003.44561342592</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>46006.98184027777</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44941</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>46049.32577546296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>46048.32422453703</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>46006.37310185185</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>45121</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>46009.59079861111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>45198</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>45625.59396990741</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>45450</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45593.4062037037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>46008.36883101852</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>46049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44393.55895833333</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>46009.5931712963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>46051</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>45671.73806712963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>45154</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>45749</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25237,7 +25237,7 @@
         <v>45749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25294,7 +25294,7 @@
         <v>45110</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44831</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>45460.62325231481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>45401.34318287037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44918</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>45176</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>44843</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>45243.86833333333</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45243.87045138889</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>45243.89939814815</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>45686</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>45302.89086805555</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>44722</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44722</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>45002</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26159,7 +26159,7 @@
         <v>44677</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>45581</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45581.45054398148</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45202.63612268519</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45302</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44407</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45393</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45239.80939814815</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45442.44138888889</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45226</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45226</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45260</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45679.68590277778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45379.42040509259</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45379</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>44431</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>44454</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>44256</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>44883.48738425926</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45188.42696759259</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45072</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>44985.64291666666</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45127</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45699.50817129629</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>44256</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>44256.50052083333</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>44256.50144675926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45202.90619212963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45756.59548611111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45181.44695601852</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28075,7 +28075,7 @@
         <v>45082</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28132,7 +28132,7 @@
         <v>44637.60309027778</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28189,7 +28189,7 @@
         <v>45672.69155092593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44441</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>45513</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>45341.6625462963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>45141</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>45386</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44749.33506944445</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44985.64077546296</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>45202.90333333334</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44987.68640046296</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44924.42072916667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>45201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>45098</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>45377.42774305555</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>45104</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>45366.52236111111</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>45267</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>45266</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>45656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>44490.49238425926</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>45323</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29391,7 +29391,7 @@
         <v>44651</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29448,7 +29448,7 @@
         <v>45379.50065972222</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>45558</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45644</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44722</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45685.82054398148</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45705</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45119</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44533.62636574074</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>44847</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45595</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45081</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44355</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45763</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44424</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>45628</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>45701.45445601852</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>44994.65591435185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44270.29697916667</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>45243.8634375</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44480</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>45315.62259259259</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44236</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>45344.64137731482</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30784,7 +30784,7 @@
         <v>44998.45219907408</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30846,7 +30846,7 @@
         <v>45282</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>45243.86091435186</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30960,7 +30960,7 @@
         <v>45243.86578703704</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>44379</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>45622</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31131,7 +31131,7 @@
         <v>45118</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31188,7 +31188,7 @@
         <v>45769.55885416667</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31250,7 +31250,7 @@
         <v>45159.62949074074</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>44888</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31369,7 +31369,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         <v>45328</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         <v>45379</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31540,7 +31540,7 @@
         <v>45478</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31597,7 +31597,7 @@
         <v>44770</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31654,7 +31654,7 @@
         <v>45701.45849537037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31716,7 +31716,7 @@
         <v>45777.57553240741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31773,7 +31773,7 @@
         <v>45777.58569444445</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31830,7 +31830,7 @@
         <v>45779</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>45779</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31954,7 +31954,7 @@
         <v>45783</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32016,7 +32016,7 @@
         <v>45636</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32073,7 +32073,7 @@
         <v>45789.55943287037</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32130,7 +32130,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>45792</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>45792.47974537037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>45792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45792.4915625</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>45792.48493055555</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>45700.34417824074</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32554,7 +32554,7 @@
         <v>45686</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32611,7 +32611,7 @@
         <v>45407</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>45674</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>45282</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45229</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45229</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45727</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44574</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>44525</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>45002.33693287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45356</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>45960.46733796296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45380</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45982.47866898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45771</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45265</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44356.64039351852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44280.67996527778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>44659</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44683</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>44454</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>44413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>44466</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>44277.44908564815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44419</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44252.4019212963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44734.59395833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44559</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44851.28905092592</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>44497</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44342.3705787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>44536</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44741.58083333333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44337</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44466</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44446</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44576</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44791.5109837963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44525</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44285</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44588</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44303</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44769.85975694445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44769.86467592593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44523</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44380</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44829.53040509259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44448</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44834</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44657</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>44518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>44449</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44551</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44365</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44389.34393518518</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44657</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44440</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44426</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44361</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44810</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44880</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44853</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44573.4724074074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>44614</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>44855.50005787037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44347</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44309</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44347.59332175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44393.55623842592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44706</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>44591.73207175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44810.61072916666</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>44518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>44518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>44741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>44584.43501157407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>44825</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44707</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>44448</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>45631</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>45425</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>45081</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44452</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>45442</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>45324</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44525</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44991.76490740741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>45095.5043287037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44974</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45771</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45734.73771990741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45272</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45756.47322916667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45637</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>44894.54332175926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>45238</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44722.65894675926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44256</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45202.88909722222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45693</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45456</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45600.46086805555</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>45222.6190625</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>45749</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>44959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45447.67954861111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>45110</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>45662.66461805555</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44365</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45798.63496527778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45798.6374537037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>45799.58790509259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>45575</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>45799.55320601852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>45798.58275462963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>45553.63631944444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>45798.63954861111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>45803.60784722222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>44588.77704861111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>45701.45054398148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>45802.98574074074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>44497</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>45044.70921296296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>45804.68641203704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>45268</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>45805.4883449074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>45805.48194444444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>45244.59488425926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44812</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>45887</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>45805.47020833333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>45805.47421296296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>45805.48299768518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>45804.51362268518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>45112</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>45303</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>45569.53792824074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>45807.42402777778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>45888.62746527778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>45537.46413194444</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>45888</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>45810.33642361111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>45811.64729166667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45811.65296296297</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45811.64962962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45810</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44584.92929398148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>45699.5178125</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45477.7536574074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>45810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>45811.65487268518</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>45771</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>45812.18076388889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45812.18193287037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>44741.62621527778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>45253</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44917</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>45246.49946759259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44256</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>45818.70811342593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44258</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>45202.66186342593</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>45819.33046296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>44742</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>44742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>45202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>45902</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>45820.36546296296</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>45370.56413194445</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44265</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>45040.81483796296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>45902.55111111111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>45905.61800925926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>45904.44737268519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>45904.45096064815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45904.44528935185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44334.41479166667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>45456</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>45911</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>45364</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44584.92440972223</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>45911</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>45911.00423611111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>45910.99054398148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>45385.59355324074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>45827.37871527778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>45827.37355324074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>45378.45844907407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>45364.55585648148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>45041</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>45364.5349074074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>45827.37101851852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>45429</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>45678</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>45917</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>45243.89223379629</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>45833</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>45456</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>45678.32096064815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>45832.92839120371</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>45833</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>45833.41175925926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>45379.60784722222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>45666.631875</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>45803</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>45803</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>45167.8615162037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44588.71736111111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>45167.86685185185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45664.81667824074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>45243.87305555555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>45191</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>44734.59033564815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>45313</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>45647</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>45763</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44473.59327546296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45202.60193287037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45933</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>45933</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>45933.36717592592</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>45716.4727199074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>45936</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44917</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>45936</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>45936.54618055555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>45387</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>45936.67871527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>45933.75037037037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>45770</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>45841</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>45841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>45841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>45937</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>45470.70732638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>45252.48734953703</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45208</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45944.65953703703</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44656</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45203.8788425926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>45944</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>45947.59918981481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45076</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45838.45957175926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45950.47662037037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45947.7615162037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45950.49555555556</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45782.46689814814</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45079</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45681</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45951</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45947.78379629629</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44883</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>45366</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>45904</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>45917</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44648</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>45952</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>45952.70795138889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>45698</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>45681.64340277778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>45265.67802083334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>45379</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>45771</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44978.49046296296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>45996.63592592593</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>45954.35456018519</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17595,7 +17595,7 @@
         <v>44473</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>45958</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44965.40863425926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45959.57221064815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45672.69739583333</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>45282</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>45361.54023148148</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>45959.5890162037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>45959.50270833333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>45876.46565972222</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>45960.49731481481</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45876.4650925926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>45877</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>45961.31371527778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45961.44334490741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>45098</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>45392.48643518519</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>45679.70420138889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>45450</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18785,7 +18785,7 @@
         <v>44526</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>45581.44835648148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44421</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44270.28930555555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44712</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45113</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45679</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>45639</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>45631</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44753.68769675926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>45477.73</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>45882</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>45974</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44972</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>45756.59615740741</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>45022.37618055556</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>45887</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>45268</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19935,7 +19935,7 @@
         <v>45978.53528935185</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>45359</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44466</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44256</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>44256</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>44234</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>45981.80733796296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>44342.36737268518</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44342.36854166666</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>45985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>45625</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45167.87266203704</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>45985</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44489.32222222222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>45772.53273148148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>45989.57525462963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>45210</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>45453</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>45581.44762731482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>46034.64753472222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>45604.49644675926</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>45666</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>46034.66052083333</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>46034.66271990741</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45322.60049768518</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>45763</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45268</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45995.33516203704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>45461</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45313</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>45995.36916666666</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>46036.35011574074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44595</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44595</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>45999.41554398148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>45756</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>45302.8869675926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>45699.50086805555</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44855.48866898148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45999.64396990741</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45628.72998842593</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>46038.71106481482</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>46038.71923611111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>46038.72739583333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45999.62773148148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45999.43715277778</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45581.44998842593</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45999.6125925926</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45999.58943287037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>45999.46429398148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>45636</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>45282</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>45999.56577546296</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44448</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>46037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>45478</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45478</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>46042</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>46001.62677083333</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>46042</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>45315.65621527778</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>45756.49243055555</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>46000.65341435185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>46000.40466435185</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45622.72836805556</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>46000.31924768518</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44746</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45600.46815972222</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44256</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>46002.3866087963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>46003.45391203704</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>46003.44561342592</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>46006.98184027777</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44941</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>46049.32577546296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>46048.32422453703</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>46006.37310185185</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>45121</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>46009.59079861111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>45198</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>45625.59396990741</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>45450</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45593.4062037037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>46008.36883101852</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>46049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44393.55895833333</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>46009.5931712963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>46051</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>45671.73806712963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>45154</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>45749</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25237,7 +25237,7 @@
         <v>45749</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25294,7 +25294,7 @@
         <v>45110</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44831</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>45460.62325231481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>45401.34318287037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44918</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>45176</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>44843</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>45243.86833333333</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45243.87045138889</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>45243.89939814815</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>45686</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>45302.89086805555</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>44722</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44722</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>45002</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26159,7 +26159,7 @@
         <v>44677</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>45581</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45581.45054398148</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45202.63612268519</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45302</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44407</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45393</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45239.80939814815</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45442.44138888889</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45226</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45226</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45260</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45679.68590277778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45379.42040509259</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45379</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>44431</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>44454</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>44256</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>44883.48738425926</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45188.42696759259</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45072</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>44985.64291666666</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45127</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45699.50817129629</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>44256</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>44256.50052083333</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>44256.50144675926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45202.90619212963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>44851</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45756.59548611111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45181.44695601852</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28075,7 +28075,7 @@
         <v>45082</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28132,7 +28132,7 @@
         <v>44637.60309027778</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28189,7 +28189,7 @@
         <v>45672.69155092593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>44441</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>45513</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>45341.6625462963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>45141</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>45386</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44749.33506944445</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44985.64077546296</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>45202.90333333334</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44987.68640046296</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44924.42072916667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>45201</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>45098</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>45377.42774305555</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>45104</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>45366.52236111111</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>45267</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>45266</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>45656</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>44490.49238425926</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>45323</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29391,7 +29391,7 @@
         <v>44651</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29448,7 +29448,7 @@
         <v>45379.50065972222</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>45558</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45644</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44722</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45685.82054398148</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45705</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45119</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44533.62636574074</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>44847</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45595</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45081</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44355</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45763</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44424</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>45628</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>45701.45445601852</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>44994.65591435185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44270.29697916667</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>45243.8634375</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44480</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>45315.62259259259</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44236</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>45344.64137731482</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30784,7 +30784,7 @@
         <v>44998.45219907408</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30846,7 +30846,7 @@
         <v>45282</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>45243.86091435186</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30960,7 +30960,7 @@
         <v>45243.86578703704</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>44379</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>45622</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31131,7 +31131,7 @@
         <v>45118</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31188,7 +31188,7 @@
         <v>45769.55885416667</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31250,7 +31250,7 @@
         <v>45159.62949074074</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>44888</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31369,7 +31369,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         <v>45328</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         <v>45379</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31540,7 +31540,7 @@
         <v>45478</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31597,7 +31597,7 @@
         <v>44770</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31654,7 +31654,7 @@
         <v>45701.45849537037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31716,7 +31716,7 @@
         <v>45777.57553240741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31773,7 +31773,7 @@
         <v>45777.58569444445</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31830,7 +31830,7 @@
         <v>45779</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>45779</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31954,7 +31954,7 @@
         <v>45783</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32016,7 +32016,7 @@
         <v>45636</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32073,7 +32073,7 @@
         <v>45789.55943287037</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32130,7 +32130,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>45792</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>45792.47974537037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>45792</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45792.4915625</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>45792.48493055555</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>45700.34417824074</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32554,7 +32554,7 @@
         <v>45686</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32611,7 +32611,7 @@
         <v>45407</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>45674</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>45282</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45229</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45229</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45727</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44574</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>44525</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>45002.33693287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45356</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>45960.46733796296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45380</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45982.47866898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45771</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45265</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44356.64039351852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44280.67996527778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>44659</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44683</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>44454</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>44413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>44466</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>44277.44908564815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44419</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44252.4019212963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44734.59395833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44559</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44851.28905092592</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>44497</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44342.3705787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44536</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>44413</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44741.58083333333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44337</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44466</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44791.5109837963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44576</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44525</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44285</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44303</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44588</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44769.85975694445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44769.86467592593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44523</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44380</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44829.53040509259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44448</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44834</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44657</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>44518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>44449</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44551</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44365</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44389.34393518518</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44657</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44440</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44426</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44361</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44810</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44880</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44853</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44573.4724074074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>44614</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>44855.50005787037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44347</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44309</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44393.55623842592</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44347.59332175926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44706</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>44810.61072916666</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44591.73207175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>44518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>44518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>44741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>44584.43501157407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>44825</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44707</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>44448</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>45425</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>45631</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>45442</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45141</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>45081</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44525</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44991.76490740741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>45095.5043287037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>45771</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45734.73771990741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45324</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45756.47322916667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45637</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45272</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>44894.54332175926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>45238</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44722.65894675926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44256</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45456</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45600.46086805555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45693</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>44959</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>45222.6190625</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>45447.67954861111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>45749</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45662.66461805555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>45110</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44365</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44588.77704861111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45202.88909722222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45701.45054398148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45268</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>45244.59488425926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>45044.70921296296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>45537.46413194444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>44812</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>45303</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>44584.92929398148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>45569.53792824074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>44917</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45699.5178125</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>44741.62621527778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>45253</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>45818.70811342593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44917</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>45246.49946759259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44256</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44497</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>45819.33046296296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44258</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>45820.36546296296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45202.66186342593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>45040.81483796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>45888.62746527778</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>44742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>44742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>45888</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45202</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>45370.56413194445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>44265</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>45477.7536574074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>45364</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>45385.59355324074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>45827.37871527778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>45827.37355324074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>45000</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45378.45844907407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45364.55585648148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>44334.41479166667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>45364.5349074074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>45456</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>45827.37101851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45833</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>45832.92839120371</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>45833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>45833.41175925926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>45041</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>45664.81667824074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>45429</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>45678</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>45243.89223379629</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>45902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>45902.55111111111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>45456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>45905.61800925926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>45904.44737268519</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>45904.45096064815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>45678.32096064815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>45904.44528935185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>45379.60784722222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>45841</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>45841</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>45841</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>45666.631875</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>45911</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>44584.92440972223</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>45911</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>45911.00423611111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>45167.8615162037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>44588.71736111111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>45167.86685185185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>45910.99054398148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>45243.87305555555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>45191</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44734.59033564815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>45313</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>45647</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>45917</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>45763</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45838.45957175926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44473.59327546296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45202.60193287037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45782.46689814814</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45716.4727199074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44917</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>45387</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>45770</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>45803</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>45803</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45470.70732638889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>45252.48734953703</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>45208</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44965.40863425926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44474</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44656</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45203.8788425926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45876.46565972222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>45876.4650925926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>45933</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>45933</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>45933.36717592592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>45877</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>45076</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>45936</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>45936</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>45936.54618055555</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>45936.67871527778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>45933.75037037037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>45079</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>45681</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44883</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45366</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45882</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45937</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44648</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45698</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45681.64340277778</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>45265.67802083334</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>45379</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>45771</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>45887</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44978.49046296296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>45944.65953703703</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44473</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>45944</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>45947.59918981481</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>45672.69739583333</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45282</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45361.54023148148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45950.47662037037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45947.7615162037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45950.49555555556</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>45951</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>45947.78379629629</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>45904</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45917</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>45952</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>45392.48643518519</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>45679.70420138889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>45952.70795138889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>45450</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>44526</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>44526</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>45581.44835648148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>44421</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>44270.28930555555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>44712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16928,7 +16928,7 @@
         <v>45113</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
         <v>45679</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>45954.35456018519</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45639</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45068</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45631</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45958</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44753.68769675926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>45959.57221064815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>45477.73</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45959.5890162037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>45959.50270833333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45960.49731481481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44923</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44972</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45961.31371527778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45961.44334490741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45756.59615740741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45022.37618055556</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45268</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45359</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44256</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44256</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44342.36737268518</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44342.36854166666</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45625</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45167.87266203704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45974</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45978.53528935185</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>44489.32222222222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>45772.53273148148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>45210</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45981.80733796296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45985</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45453</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45581.44762731482</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45604.49644675926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45985</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45666</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>45322.60049768518</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>45763</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>45268</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>45989.57525462963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>46034.64753472222</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45461</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45313</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>46034.66052083333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44595</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44595</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>46034.66271990741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45756</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45302.8869675926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45995.33516203704</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45699.50086805555</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44855.48866898148</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45628.72998842593</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45995.36916666666</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>46036.35011574074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45581.44998842593</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>45636</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>45999.41554398148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>45282</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44448</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>45999.64396990741</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>46038.71106481482</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>46038.71923611111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>46038.72739583333</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45999.62773148148</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45478</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45478</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45999.43715277778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45999.6125925926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>45999.58943287037</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45315.65621527778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>45756.49243055555</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>45999.46429398148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45999.56577546296</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45622.72836805556</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>46042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>46001.62677083333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>46042</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>46000.65341435185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>46000.40466435185</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44746</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45600.46815972222</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44256</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>46000.31924768518</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44941</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>46002.3866087963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>46003.45391203704</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>46003.44561342592</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>45121</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>46006.98184027777</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>45198</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>46049.32577546296</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>46048.32422453703</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45625.59396990741</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>46006.37310185185</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45450</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22778,7 +22778,7 @@
         <v>45593.4062037037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>46009.59079861111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44393.55895833333</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>45671.73806712963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23011,7 +23011,7 @@
         <v>46008.36883101852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>46049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>46009.5931712963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>45154</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>45749</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>45749</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>46051</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>45460.62325231481</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>45401.34318287037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44918</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45176</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44843</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45243.86833333333</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45243.87045138889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>45243.89939814815</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>45686</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>45302.89086805555</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44722</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>44722</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>45002</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>44677</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>45581</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>45581.45054398148</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>45202.63612268519</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>45097</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>46037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>45996</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>45887</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45302</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>44407</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45393</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45239.80939814815</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45058</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45442.44138888889</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45226</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45226</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45260</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>45679.68590277778</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>45379.42040509259</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>45379</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>44431</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>44454</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>44256</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>44883.48738425926</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>45188.42696759259</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>44985.64291666666</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>45127</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>45699.50817129629</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>44256</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44256.50052083333</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26067,7 +26067,7 @@
         <v>44256.50144675926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>45202.90619212963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44851</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45756.59548611111</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45181.44695601852</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>45082</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44637.60309027778</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>45672.69155092593</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44441</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45513</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45341.6625462963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>45141</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45386</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44749.33506944445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44985.64077546296</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>45202.90333333334</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44987.68640046296</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44924.42072916667</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>45201</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>45377.42774305555</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>45104</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>45366.52236111111</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>45267</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>45266</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>45656</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44490.49238425926</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>45323</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44651</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>45379.50065972222</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>45558</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>45644</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44722</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>45685.82054398148</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>45705</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>45119</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44533.62636574074</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44847</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45595</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45081</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>44355</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>45763</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>44424</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>45628</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>45701.45445601852</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44994.65591435185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44270.29697916667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>45243.8634375</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44480</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>45315.62259259259</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>45344.64137731482</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44998.45219907408</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>45282</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>45243.86091435186</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>45243.86578703704</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44379</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>45622</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>45118</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>45769.55885416667</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>45159.62949074074</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44888</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44722</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>45328</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>45379</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>45478</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44770</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>45701.45849537037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>45777.57553240741</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>45777.58569444445</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>45779</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45779</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>45783</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>45636</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>45789.55943287037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44805</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>45792</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>45792.47974537037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45792</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>45792.4915625</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
         <v>45792.48493055555</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30732,7 +30732,7 @@
         <v>45700.34417824074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         <v>45686</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30846,7 +30846,7 @@
         <v>45407</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>45674</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30960,7 +30960,7 @@
         <v>45282</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>45798.63496527778</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>45798.6374537037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31131,7 +31131,7 @@
         <v>45799.58790509259</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31193,7 +31193,7 @@
         <v>45575</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31250,7 +31250,7 @@
         <v>45799.55320601852</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>45798.58275462963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31369,7 +31369,7 @@
         <v>45553.63631944444</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         <v>45798.63954861111</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         <v>45803.60784722222</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31545,7 +31545,7 @@
         <v>45802.98574074074</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>45804.68641203704</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>45805.4883449074</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31726,7 +31726,7 @@
         <v>45805.48194444444</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31788,7 +31788,7 @@
         <v>45805.47020833333</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>45805.47421296296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>45805.48299768518</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>45804.51362268518</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45807.42402777778</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45810.33642361111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>45811.64729166667</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>45811.65296296297</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45811.64962962963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45810</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45810</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45811.65487268518</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45771</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45812.18076388889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>45812.18193287037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45229</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45229</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45727</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44574</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>44525</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>45002.33693287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45356</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>45960.46733796296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45380</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45982.47866898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45771</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45265</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44356.64039351852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44280.67996527778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>44659</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44683</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>44454</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>44413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>44466</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>44277.44908564815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44419</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44252.4019212963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44734.59395833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44559</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44851.28905092592</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>44497</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44342.3705787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44536</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>44413</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44741.58083333333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44337</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44466</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44791.5109837963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44576</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44525</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44285</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44303</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44588</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44769.85975694445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44769.86467592593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44523</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44380</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44829.53040509259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44448</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44834</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44657</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>44518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>44449</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44551</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44365</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44389.34393518518</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44657</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44440</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44426</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44361</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44742</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44810</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44880</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44853</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44573.4724074074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>44614</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>44855.50005787037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44347</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44309</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44393.55623842592</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44347.59332175926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44706</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44454</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>44810.61072916666</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44591.73207175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>44518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>44518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>44741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>44584.43501157407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>44825</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44707</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>44448</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>45425</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>45631</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>45442</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45141</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>45081</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44525</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44991.76490740741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>45095.5043287037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>45771</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45734.73771990741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45324</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45756.47322916667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45637</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45272</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>44894.54332175926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>45238</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44722.65894675926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44256</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45456</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45600.46086805555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45693</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>44959</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>45222.6190625</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>45447.67954861111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>45749</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45662.66461805555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>45110</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44365</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44588.77704861111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45202.88909722222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45701.45054398148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45268</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>45244.59488425926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>45044.70921296296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>45537.46413194444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>44812</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>45303</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>44584.92929398148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>45569.53792824074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>44917</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45699.5178125</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>44741.62621527778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>45253</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>45818.70811342593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44917</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>45246.49946759259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44256</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44497</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>45819.33046296296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44258</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>45820.36546296296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45202.66186342593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>45040.81483796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>45888.62746527778</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>44742</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>44742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>45888</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45202</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>45370.56413194445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>44265</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>45477.7536574074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>45364</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>45385.59355324074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>45827.37871527778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>45827.37355324074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>45000</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45378.45844907407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45364.55585648148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>44334.41479166667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>45364.5349074074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>45456</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>45827.37101851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45833</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>45832.92839120371</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>45833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>45833.41175925926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>45041</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>45664.81667824074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>45429</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>45678</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>45243.89223379629</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>45902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>45902.55111111111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>45456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>45905.61800925926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>45904.44737268519</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>45904.45096064815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>45678.32096064815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>45904.44528935185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>45379.60784722222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>45841</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>45841</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>45841</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>45666.631875</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>45911</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>44584.92440972223</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>45911</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>45911.00423611111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>45167.8615162037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>44588.71736111111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>45167.86685185185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>45910.99054398148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>45243.87305555555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>45191</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44734.59033564815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>45313</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>45647</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>45917</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>45763</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>45838.45957175926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44473.59327546296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45202.60193287037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45782.46689814814</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45716.4727199074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44917</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>45387</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>45770</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>45803</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>45803</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45470.70732638889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>45252.48734953703</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>45208</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44965.40863425926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44474</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44656</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45203.8788425926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45876.46565972222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>45876.4650925926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>45933</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>45933</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>45933.36717592592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>45877</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>45076</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>45936</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>45936</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>45936.54618055555</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>45936.67871527778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>45933.75037037037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>45079</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>45681</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44883</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45366</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45882</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45937</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44648</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45698</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45681.64340277778</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>45265.67802083334</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>45379</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>45771</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>45887</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44978.49046296296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>45944.65953703703</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44473</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>45944</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>45947.59918981481</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>45672.69739583333</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45282</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45361.54023148148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45950.47662037037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45947.7615162037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45950.49555555556</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>45951</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>45947.78379629629</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>45904</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45917</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>45952</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>45392.48643518519</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>45679.70420138889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>45952.70795138889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>45450</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>44526</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>44526</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>45581.44835648148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>44421</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>44270.28930555555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>44712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16928,7 +16928,7 @@
         <v>45113</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
         <v>45679</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>45954.35456018519</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45639</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45068</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45631</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45958</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44753.68769675926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>45959.57221064815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>45477.73</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45959.5890162037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>45959.50270833333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45960.49731481481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44923</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44972</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45961.31371527778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45961.44334490741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45756.59615740741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45022.37618055556</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45268</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45359</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44256</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44256</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44342.36737268518</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44342.36854166666</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45625</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45167.87266203704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45974</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45978.53528935185</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>44489.32222222222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>45772.53273148148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>45210</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45981.80733796296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45985</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45453</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45581.44762731482</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45604.49644675926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45985</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45666</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>45322.60049768518</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>45763</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>45268</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>45989.57525462963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>46034.64753472222</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45461</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45313</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>46034.66052083333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44595</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44595</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>46034.66271990741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45756</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45302.8869675926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45995.33516203704</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45699.50086805555</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44855.48866898148</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45628.72998842593</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45995.36916666666</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>46036.35011574074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45581.44998842593</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>45636</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>45999.41554398148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>45282</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44448</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>45999.64396990741</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>46038.71106481482</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>46038.71923611111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>46038.72739583333</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45999.62773148148</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45478</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45478</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45999.43715277778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45999.6125925926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>45999.58943287037</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45315.65621527778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>45756.49243055555</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>45999.46429398148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45999.56577546296</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45622.72836805556</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>46042</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>46001.62677083333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>46042</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>46000.65341435185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>46000.40466435185</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44746</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45600.46815972222</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44256</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>46000.31924768518</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44941</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>46002.3866087963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>46003.45391203704</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>46003.44561342592</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>45121</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>46006.98184027777</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>45198</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>46049.32577546296</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>46048.32422453703</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45625.59396990741</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>46006.37310185185</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45450</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22778,7 +22778,7 @@
         <v>45593.4062037037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>46009.59079861111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44393.55895833333</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>45671.73806712963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23011,7 +23011,7 @@
         <v>46008.36883101852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>46049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>46009.5931712963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>45154</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>45749</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>45749</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>46051</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>45460.62325231481</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>45401.34318287037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44918</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45176</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44843</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45243.86833333333</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45243.87045138889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>45243.89939814815</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>45686</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>45302.89086805555</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44722</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>44722</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>45002</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>44677</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>45581</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>45581.45054398148</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>45202.63612268519</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>45097</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>46037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>45996</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>45887</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45302</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>44407</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45393</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45239.80939814815</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45058</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45442.44138888889</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45226</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45226</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45260</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>45679.68590277778</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>45379.42040509259</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>45379</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>44431</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>44454</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>44256</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>44883.48738425926</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>45188.42696759259</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>44985.64291666666</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>45127</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>45699.50817129629</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>44256</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44256.50052083333</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26067,7 +26067,7 @@
         <v>44256.50144675926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>45202.90619212963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44851</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45756.59548611111</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45181.44695601852</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>45082</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44637.60309027778</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>45672.69155092593</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44441</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45513</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45341.6625462963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>45141</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45386</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44749.33506944445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44985.64077546296</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>45202.90333333334</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44987.68640046296</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44924.42072916667</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>45201</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>45377.42774305555</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>45104</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>45366.52236111111</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>45267</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>45266</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>45656</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44490.49238425926</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>45323</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44651</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>45379.50065972222</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>45558</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>45644</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44722</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>45685.82054398148</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>45705</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>45119</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44533.62636574074</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44847</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45595</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45081</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>44355</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>45763</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>44424</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>45628</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>45701.45445601852</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44994.65591435185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44270.29697916667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>45243.8634375</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44480</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>45315.62259259259</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>45344.64137731482</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44998.45219907408</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>45282</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>45243.86091435186</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>45243.86578703704</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44379</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>45622</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>45118</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>45769.55885416667</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>45159.62949074074</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44888</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44722</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>45328</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>45379</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>45478</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44770</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>45701.45849537037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>45777.57553240741</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>45777.58569444445</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>45779</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45779</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>45783</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>45636</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>45789.55943287037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44805</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>45792</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>45792.47974537037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45792</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>45792.4915625</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
         <v>45792.48493055555</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30732,7 +30732,7 @@
         <v>45700.34417824074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         <v>45686</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30846,7 +30846,7 @@
         <v>45407</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>45674</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30960,7 +30960,7 @@
         <v>45282</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>45798.63496527778</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>45798.6374537037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31131,7 +31131,7 @@
         <v>45799.58790509259</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31193,7 +31193,7 @@
         <v>45575</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31250,7 +31250,7 @@
         <v>45799.55320601852</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>45798.58275462963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31369,7 +31369,7 @@
         <v>45553.63631944444</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         <v>45798.63954861111</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         <v>45803.60784722222</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31545,7 +31545,7 @@
         <v>45802.98574074074</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>45804.68641203704</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>45805.4883449074</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31726,7 +31726,7 @@
         <v>45805.48194444444</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31788,7 +31788,7 @@
         <v>45805.47020833333</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>45805.47421296296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>45805.48299768518</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>45804.51362268518</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45807.42402777778</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45810.33642361111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>45811.64729166667</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>45811.65296296297</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45811.64962962963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45810</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45810</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45811.65487268518</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45771</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45812.18076388889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>45812.18193287037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45229</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45229</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45727</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44488</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44574</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>44525</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>45771</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45002.33693287037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>45960.46733796296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45380</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45982.47866898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45265</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44356.64039351852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44280.67996527778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>44659</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44683</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>44454</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>44413</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>44466</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>44277.44908564815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44419</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44734.59395833333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44559</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44851.28905092592</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>44342.3705787037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>44741.58083333333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44337</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44441</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44576</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44791.5109837963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44466</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44525</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44285</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44303</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44588</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44769.85975694445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44769.86467592593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44380</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44829.53040509259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44389</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44834</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44657</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44497</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>44449</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>44413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44455</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44551</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44501</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44365</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44389.34393518518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44657</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44440</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44426</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44707</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44810</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44880</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44853</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44573.4724074074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>44614</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>44855.50005787037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>44347</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44347.59332175926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44393.55623842592</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44706</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44454</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44810.61072916666</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>44591.73207175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>44518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>44501</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>44584.43501157407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>44825</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>44707</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44706</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>44333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44448</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>45628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>45625</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>45208</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>45771</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45377.42774305555</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>45202.60193287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>45202.66186342593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44770</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>45265.67802083334</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>44379</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>45095.5043287037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>44342.36737268518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>44342.36854166666</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>45429</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>45282</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>45763</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>45558</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>45756.49243055555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>45447.67954861111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>44474</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44855.48866898148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>45393</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45569.53792824074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44888</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44883.48738425926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45470.70732638889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>45243.89939814815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>45268</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>44941</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>45246.49946759259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45513</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>44656</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44918</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45593.4062037037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>45127</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>45366</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>45644</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>44490.49238425926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>44917</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>45805.48194444444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44584.92929398148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>45805.47020833333</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>45805.47421296296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>45805.4883449074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>45805.48299768518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>45888.62746527778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>45810</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>45807.42402777778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>45810.33642361111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>45888</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>45604.49644675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>45810</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>45359</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44452</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45812.18193287037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>45477.7536574074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>45811.65487268518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>45887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>45581.44998842593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>45811.64962962963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>45811.64729166667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>45811.65296296297</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>45812.18076388889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44974</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45771</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45818.70811342593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         <v>45370.56413194445</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>45379.50065972222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>44258</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>45040.81483796296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>45820.36546296296</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>45819.33046296296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>45364.5349074074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>45364</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45378.45844907407</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45385.59355324074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45625.59396990741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45637</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>44722.65894675926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45364.55585648148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45827.37101851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44637.60309027778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>45827.37355324074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>45902.55111111111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>45453</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>45827.37871527778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>45581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>45581.45054398148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>45902</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45763</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45904.44737268519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45904.45096064815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45904.44528935185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45905.61800925926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>45833</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45833.41175925926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>45832.92839120371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>45833</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>45664.81667824074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>44256</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>45239.80939814815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>44256</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>44256</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>44722</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>44722</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>45772.53273148148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>45041</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44270.29697916667</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>45581.44835648148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44466</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>45267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>45841</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44753.68769675926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>45361.54023148148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>45841</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>45841</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>45600.46815972222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>45910.99054398148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45911</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>45911</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>45911.00423611111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44441</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44424</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44584.92440972223</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45118</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45058</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44712</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>45662.66461805555</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44924.42072916667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>45838.45957175926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>45119</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>45782.46689814814</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>45141</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>45749</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>45749</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44334.41479166667</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>45917</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>45202.63612268519</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>45701.45445601852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>45803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>45803</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45666.631875</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44965.40863425926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>45656</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>45876.4650925926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45876.46565972222</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45442.44138888889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44365</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>45877</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44987.68640046296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>45647</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44473</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>45002</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>45882</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>45176</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45686</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>45933.75037037037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45936.54618055555</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45936</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44843</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44497</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44894.54332175926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45933</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45933.36717592592</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45936.67871527778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45936</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>45937</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>45671.73806712963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44533.62636574074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44917</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45260</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>45253</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44883</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>45944.65953703703</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44847</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>45944</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44454</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>45226</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>45226</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44473.59327546296</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>45076</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44525</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>45366.52236111111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>45950.47662037037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>45947.7615162037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>45950.49555555556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>45947.78379629629</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>45272</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>45167.87266203704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>45947.59918981481</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>45081</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>45951</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>45904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>45952</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>45952.70795138889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>45917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>45954.35456018519</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>45313</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>45679.70420138889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>44994.65591435185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45958</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>45581.44762731482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45678.32096064815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45959.5890162037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45081</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45252.48734953703</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45959.50270833333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>45379.60784722222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>45960.49731481481</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45756.47322916667</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45756.59548611111</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45238</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45959.57221064815</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45961.31371527778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45379.42040509259</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>45379</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45961.44334490741</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>44985.64077546296</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>45387</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>45537.46413194444</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>45282</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>45328</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>45324</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44959</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>44851</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>45392.48643518519</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>45000</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>45974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>45110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>45461</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>45698</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>45456</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>45978.53528935185</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>45079</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>45188.42696759259</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45771</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>45022.37618055556</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>45442</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>45595</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>45981.80733796296</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20743,7 +20743,7 @@
         <v>45622.72836805556</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>45985</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>45985</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>44588.71736111111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>44588.77704861111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         <v>45113</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21100,7 +21100,7 @@
         <v>45600.46086805555</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>45716.4727199074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>45082</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>45268</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45478</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>45699.50086805555</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45989.57525462963</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>45672.69155092593</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45450</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44648</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>45622</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>45995.36916666666</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>45198</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>45995.33516203704</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>46000.65341435185</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>46000.31924768518</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>45999.41554398148</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>45999.43715277778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22151,7 +22151,7 @@
         <v>46000.40466435185</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45999.62773148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>45999.46429398148</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45999.56577546296</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>45999.64396990741</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>46042</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>45999.58943287037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>45999.6125925926</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22637,7 +22637,7 @@
         <v>46042</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22694,7 +22694,7 @@
         <v>45044.70921296296</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>46001.62677083333</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>45313</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>45456</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>46002.3866087963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>46003.44561342592</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>46048.32422453703</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>44734.59033564815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44722</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>44722</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>46006.37310185185</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>46003.45391203704</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>46049.32577546296</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>46008.36883101852</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23549,7 +23549,7 @@
         <v>45666</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23606,7 +23606,7 @@
         <v>46006.98184027777</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>46049</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>45181.44695601852</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45202</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>46009.59079861111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45769.55885416667</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45243.89223379629</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24015,7 +24015,7 @@
         <v>45210</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24072,7 +24072,7 @@
         <v>46009.5931712963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24129,7 +24129,7 @@
         <v>44749.33506944445</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24186,7 +24186,7 @@
         <v>45701.45849537037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>46051</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>45631</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>45699.5178125</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>45191</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>45201</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>45749</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45302.8869675926</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45996</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>45159.62949074074</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24766,7 +24766,7 @@
         <v>45756</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>45315.62259259259</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>45887</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>45770</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>45344.64137731482</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>44831</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>46037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>45097</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25237,7 +25237,7 @@
         <v>45202.90619212963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25294,7 +25294,7 @@
         <v>44480</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>45303</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>45379</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>44355</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44256</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44256.50052083333</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44393.55895833333</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>45244.59488425926</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25755,7 +25755,7 @@
         <v>45681</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>46034.66052083333</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>45678</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>46034.64753472222</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>45386</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>45302.89086805555</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26159,7 +26159,7 @@
         <v>45681.64340277778</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>46034.66271990741</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44431</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44407</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>46036.35011574074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>45477.73</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>45268</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>44651</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26620,7 +26620,7 @@
         <v>44841</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>44741.62621527778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>46038.71923611111</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>45302</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>44256.50144675926</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         <v>46038.71106481482</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>46038.72739583333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27024,7 +27024,7 @@
         <v>44421</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45203.8788425926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27138,7 +27138,7 @@
         <v>45425</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45460.62325231481</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45341.6625462963</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>44256</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45222</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>44489.32222222222</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45478</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45478</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45154</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45628.72998842593</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45098</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45098</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45701.45054398148</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>44526</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         <v>44526</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>45104</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>44595</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44595</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45112</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45456</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45282</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45243.8634375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45243.86833333333</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45243.87045138889</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45322.60049768518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45266</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>44978.49046296296</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>44746</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45639</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45450</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44998.45219907408</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>45072</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>45167.86685185185</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>44972</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>45068</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>45202.90333333334</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>45401.34318287037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45141</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>45243.86091435186</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>45243.86578703704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>44270.28930555555</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44265</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>45699.50817129629</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>45315.65621527778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>45243.87305555555</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>45167.8615162037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>45323</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>45756.59615740741</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45672.69739583333</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44985.64291666666</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>44991.76490740741</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45631</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>44742</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>45705</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30266,7 +30266,7 @@
         <v>45734.73771990741</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45202.88909722222</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>45222.6190625</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30442,7 +30442,7 @@
         <v>45379</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30499,7 +30499,7 @@
         <v>45636</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>45763</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30613,7 +30613,7 @@
         <v>45679</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
         <v>45679.68590277778</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         <v>45693</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30784,7 +30784,7 @@
         <v>45685.82054398148</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>45777.57553240741</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30898,7 +30898,7 @@
         <v>45777.58569444445</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>45779</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>45779</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31079,7 +31079,7 @@
         <v>45783</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31141,7 +31141,7 @@
         <v>45789.55943287037</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31198,7 +31198,7 @@
         <v>45636</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>45792.48493055555</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>45792.47974537037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>45792</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>45792.4915625</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44805</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>45792</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>45686</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>45282</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>45407</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>45674</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>45700.34417824074</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>45798.58275462963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>45553.63631944444</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>45575</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>45798.63954861111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>45798.63496527778</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>45798.6374537037</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>45799.55320601852</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>45799.58790509259</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45803.60784722222</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>45802.98574074074</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>45804.68641203704</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32554,7 +32554,7 @@
         <v>45804.51362268518</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
